--- a/artfynd/A 10344-2025 artfynd.xlsx
+++ b/artfynd/A 10344-2025 artfynd.xlsx
@@ -4151,12 +4151,7 @@
         <v>123248542</v>
       </c>
       <c r="B30" t="n">
-        <v>57507</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57881</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
